--- a/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A284106-D9C8-4360-A656-533B634A6F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52D00A0-5169-4324-9F2A-4D566C7EDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F033DCC-0DA9-4425-8729-160D778A1C97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E09F3A8-C3BE-4FA9-950B-0D3143598BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="344">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="360">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,56%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>2,85%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,44%</t>
+    <t>93,53%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>97,15%</t>
+    <t>97,18%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,19 +125,19 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>1,79%</t>
@@ -146,31 +146,31 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,76%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>97,24%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>98,82%</t>
@@ -182,847 +182,907 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>2,42%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>69,73%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>2,6%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,4%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>2,41%</t>
@@ -1034,19 +1094,13 @@
     <t>5,91%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>15,65%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>9,66%</t>
   </si>
   <si>
     <t>97,59%</t>
@@ -1058,19 +1112,13 @@
     <t>94,09%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>84,35%</t>
   </si>
   <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>90,34%</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC0A489-AA45-4FEA-BCDB-47FD60A9935D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F555ED-8645-46C4-A09C-4E3D572F82CB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1934,10 +1982,10 @@
         <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -1985,10 +2033,10 @@
         <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="M11" s="7">
         <v>1776</v>
@@ -2089,10 +2137,10 @@
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -2101,13 +2149,13 @@
         <v>18741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,13 +2170,13 @@
         <v>670611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>685</v>
@@ -2140,10 +2188,10 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1319</v>
@@ -2152,13 +2200,13 @@
         <v>1343609</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,7 +2262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2226,13 +2274,13 @@
         <v>13129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2241,13 +2289,13 @@
         <v>20383</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2256,13 +2304,13 @@
         <v>33512</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2325,13 @@
         <v>929093</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -2292,13 +2340,13 @@
         <v>1018229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1958</v>
@@ -2307,10 +2355,10 @@
         <v>1947322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>93</v>
@@ -2381,13 +2429,13 @@
         <v>50714</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2396,13 +2444,13 @@
         <v>53915</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>102</v>
@@ -2411,13 +2459,13 @@
         <v>104629</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,16 +2477,16 @@
         <v>3164</v>
       </c>
       <c r="D20" s="7">
-        <v>3225829</v>
+        <v>3225830</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>3245</v>
@@ -2447,28 +2495,28 @@
         <v>3325283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>6409</v>
       </c>
       <c r="N20" s="7">
-        <v>6551112</v>
+        <v>6551111</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,7 +2528,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2510,7 +2558,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2524,7 +2572,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E1509C-7DC4-4CC1-AA0C-B0594BBE156F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F11C5-46A6-4D2E-A06B-8453507330A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2562,7 +2610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2669,13 +2717,13 @@
         <v>3559</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2690,7 +2738,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -2699,13 +2747,13 @@
         <v>3559</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2768,13 @@
         <v>112206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -2738,7 +2786,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2750,13 +2798,13 @@
         <v>224111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2872,13 @@
         <v>14223</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -2839,13 +2887,13 @@
         <v>17801</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -2854,13 +2902,13 @@
         <v>32024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2923,13 @@
         <v>573481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -2890,13 +2938,13 @@
         <v>567344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>1073</v>
@@ -2905,13 +2953,13 @@
         <v>1140825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +3027,13 @@
         <v>16457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -2994,13 +3042,13 @@
         <v>20987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -3009,13 +3057,13 @@
         <v>37445</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3078,13 @@
         <v>1001490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="H11" s="7">
         <v>921</v>
@@ -3045,13 +3093,13 @@
         <v>1011197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>1843</v>
@@ -3060,13 +3108,13 @@
         <v>2012686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3182,13 @@
         <v>8045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3149,13 +3197,13 @@
         <v>11532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3164,13 +3212,13 @@
         <v>19577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3233,13 @@
         <v>749578</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
         <v>695</v>
@@ -3200,13 +3248,13 @@
         <v>765642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1377</v>
@@ -3215,13 +3263,13 @@
         <v>1515220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3325,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3337,13 @@
         <v>15408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -3304,13 +3352,13 @@
         <v>27577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -3319,13 +3367,13 @@
         <v>42985</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3388,13 @@
         <v>932331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>977</v>
@@ -3355,13 +3403,13 @@
         <v>1024324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>1873</v>
@@ -3370,13 +3418,13 @@
         <v>1956655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3492,13 @@
         <v>57692</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>71</v>
@@ -3459,13 +3507,13 @@
         <v>77898</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -3474,13 +3522,13 @@
         <v>135590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3543,13 @@
         <v>3369087</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>3227</v>
@@ -3510,13 +3558,13 @@
         <v>3480411</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>6384</v>
@@ -3525,13 +3573,13 @@
         <v>6849498</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>36</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,7 +3635,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3608,7 +3656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4C3C56-1C19-4EE8-8E8C-6BD45F2BE8A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DA9C6-E3DF-4105-B583-D8F669C8ACC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3625,7 +3673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3738,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3747,13 +3795,13 @@
         <v>2585</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -3762,13 +3810,13 @@
         <v>3684</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3798,13 +3846,13 @@
         <v>110775</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>224</v>
@@ -3813,13 +3861,13 @@
         <v>226222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3935,13 @@
         <v>4759</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -3902,13 +3950,13 @@
         <v>4265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3917,13 +3965,13 @@
         <v>9025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3986,13 @@
         <v>553495</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -3953,13 +4001,13 @@
         <v>555214</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
         <v>1081</v>
@@ -3968,13 +4016,13 @@
         <v>1108708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,10 +4093,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4057,13 +4105,13 @@
         <v>12840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4072,13 +4120,13 @@
         <v>22454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,10 +4144,10 @@
         <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>966</v>
@@ -4108,13 +4156,13 @@
         <v>1030073</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1909</v>
@@ -4123,13 +4171,13 @@
         <v>2042890</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4245,13 @@
         <v>7047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -4212,13 +4260,13 @@
         <v>6661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4227,13 +4275,13 @@
         <v>13708</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4296,13 @@
         <v>752505</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
         <v>730</v>
@@ -4263,13 +4311,13 @@
         <v>778350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>1421</v>
@@ -4278,13 +4326,13 @@
         <v>1530855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,7 +4388,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4352,13 +4400,13 @@
         <v>11932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4367,13 +4415,13 @@
         <v>11371</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4385,10 +4433,10 @@
         <v>34</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4451,13 @@
         <v>925635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>238</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>948</v>
@@ -4418,13 +4466,13 @@
         <v>1032408</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>1869</v>
@@ -4436,10 +4484,10 @@
         <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4555,13 @@
         <v>34452</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -4522,13 +4570,13 @@
         <v>37722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4537,13 +4585,13 @@
         <v>72174</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4606,13 @@
         <v>3359898</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>3303</v>
@@ -4573,13 +4621,13 @@
         <v>3506820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>6504</v>
@@ -4588,13 +4636,13 @@
         <v>6866718</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,7 +4698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4671,7 +4719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CD9824-6393-40E4-A5DD-606B332089BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5CCCA-B41D-41F2-8290-9E359B3C4252}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4688,7 +4736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4795,13 +4843,13 @@
         <v>3974</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4810,13 +4858,13 @@
         <v>3261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4825,13 +4873,13 @@
         <v>7235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4894,13 @@
         <v>98008</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7">
         <v>237</v>
@@ -4861,13 +4909,13 @@
         <v>127472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>351</v>
@@ -4876,13 +4924,13 @@
         <v>225480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4998,13 @@
         <v>10542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -4965,13 +5013,13 @@
         <v>13956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -4980,13 +5028,13 @@
         <v>24498</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5049,13 @@
         <v>539281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>973</v>
@@ -5016,13 +5064,13 @@
         <v>606011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="M8" s="7">
         <v>1573</v>
@@ -5031,13 +5079,13 @@
         <v>1145292</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5153,13 @@
         <v>23878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -5120,13 +5168,13 @@
         <v>33524</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>289</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -5135,13 +5183,13 @@
         <v>57402</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5204,13 @@
         <v>1015370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>1462</v>
@@ -5171,13 +5219,13 @@
         <v>1026555</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>2405</v>
@@ -5186,13 +5234,13 @@
         <v>2041925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5308,13 @@
         <v>27257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5275,13 +5323,13 @@
         <v>146193</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -5290,13 +5338,13 @@
         <v>173450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5359,13 @@
         <v>701515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>993</v>
@@ -5326,13 +5374,13 @@
         <v>728178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>1638</v>
@@ -5341,13 +5389,13 @@
         <v>1429692</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,7 +5451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5415,13 +5463,13 @@
         <v>15863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5430,13 +5478,13 @@
         <v>29633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -5445,13 +5493,13 @@
         <v>45496</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5514,13 @@
         <v>949540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>1515</v>
@@ -5481,13 +5529,13 @@
         <v>1120799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>2502</v>
@@ -5496,13 +5544,13 @@
         <v>2070339</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5618,13 @@
         <v>81514</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>187</v>
@@ -5585,13 +5633,13 @@
         <v>226568</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="M19" s="7">
         <v>274</v>
@@ -5600,13 +5648,13 @@
         <v>308081</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5669,13 @@
         <v>3303714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>5180</v>
@@ -5636,25 +5684,25 @@
         <v>3609013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>8469</v>
       </c>
       <c r="N20" s="7">
-        <v>6912727</v>
+        <v>6912728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>343</v>
@@ -5699,7 +5747,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5713,7 +5761,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52D00A0-5169-4324-9F2A-4D566C7EDF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C992C16F-D80A-4786-9F55-4FEF0ED39BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E09F3A8-C3BE-4FA9-950B-0D3143598BC0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4B0D9165-4B92-4569-890F-BEF6AE5371FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1057 +68,889 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>97,18%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
 </sst>
 </file>
@@ -1530,8 +1362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F555ED-8645-46C4-A09C-4E3D572F82CB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9321E7B0-7283-413A-8D2B-3875D50A98D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1648,10 +1480,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>2149</v>
+        <v>15504</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1663,85 +1495,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>8208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>2149</v>
+        <v>23712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>667</v>
       </c>
       <c r="D5" s="7">
-        <v>113209</v>
+        <v>678508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>128</v>
+        <v>688</v>
       </c>
       <c r="I5" s="7">
-        <v>112755</v>
+        <v>680143</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>1355</v>
       </c>
       <c r="N5" s="7">
-        <v>225964</v>
+        <v>1358651</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,153 +1582,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>13355</v>
+        <v>14183</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16585</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
         <v>29</v>
       </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7255</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="7">
-        <v>21</v>
-      </c>
       <c r="N7" s="7">
-        <v>20610</v>
+        <v>30768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>564</v>
+        <v>883</v>
       </c>
       <c r="D8" s="7">
-        <v>565299</v>
+        <v>947617</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>561</v>
+        <v>892</v>
       </c>
       <c r="I8" s="7">
-        <v>568341</v>
+        <v>951808</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1125</v>
+        <v>1775</v>
       </c>
       <c r="N8" s="7">
-        <v>1133640</v>
+        <v>1899425</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,153 +1737,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>14183</v>
+        <v>7898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>15434</v>
+        <v>10843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>29617</v>
+        <v>18741</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>883</v>
+        <v>634</v>
       </c>
       <c r="D11" s="7">
-        <v>947617</v>
+        <v>670611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>893</v>
+        <v>685</v>
       </c>
       <c r="I11" s="7">
-        <v>952959</v>
+        <v>672998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
-        <v>1776</v>
+        <v>1319</v>
       </c>
       <c r="N11" s="7">
-        <v>1900576</v>
+        <v>1343609</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,99 +1892,99 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>7898</v>
+        <v>13129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>10843</v>
+        <v>20383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>18741</v>
+        <v>33512</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>70</v>
@@ -2161,13 +1993,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>634</v>
+        <v>980</v>
       </c>
       <c r="D14" s="7">
-        <v>670611</v>
+        <v>929093</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>71</v>
@@ -2179,25 +2011,25 @@
         <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>685</v>
+        <v>978</v>
       </c>
       <c r="I14" s="7">
-        <v>672998</v>
+        <v>1018229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
-        <v>1319</v>
+        <v>1958</v>
       </c>
       <c r="N14" s="7">
-        <v>1343609</v>
+        <v>1947322</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>76</v>
@@ -2206,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,150 +2047,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>13129</v>
+        <v>50714</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>54</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56019</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="7">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7">
-        <v>20383</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>104</v>
+      </c>
+      <c r="N16" s="7">
+        <v>106733</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>33512</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>980</v>
+        <v>3164</v>
       </c>
       <c r="D17" s="7">
-        <v>929093</v>
+        <v>3225829</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3243</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3323178</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>978</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1018229</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6407</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6549008</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1958</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1947322</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>93</v>
@@ -2370,217 +2202,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19" s="7">
-        <v>50714</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>52</v>
-      </c>
-      <c r="I19" s="7">
-        <v>53915</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M19" s="7">
-        <v>102</v>
-      </c>
-      <c r="N19" s="7">
-        <v>104629</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3225830</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3245</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3325283</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6409</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6551111</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2593,8 +2269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5F11C5-46A6-4D2E-A06B-8453507330A8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3161072C-EE30-4390-B351-3B2A92DBD956}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2610,7 +2286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2711,100 +2387,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>3559</v>
+        <v>17782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>17801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>3559</v>
+        <v>35583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>119</v>
+        <v>657</v>
       </c>
       <c r="D5" s="7">
-        <v>112206</v>
+        <v>685687</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>634</v>
       </c>
       <c r="I5" s="7">
-        <v>111905</v>
+        <v>679249</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M5" s="7">
-        <v>218</v>
+        <v>1291</v>
       </c>
       <c r="N5" s="7">
-        <v>224111</v>
+        <v>1364936</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,54 +2489,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2869,97 +2545,97 @@
         <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>14223</v>
+        <v>16457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>17801</v>
+        <v>20987</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M7" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>32024</v>
+        <v>37445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>538</v>
+        <v>922</v>
       </c>
       <c r="D8" s="7">
-        <v>573481</v>
+        <v>1001490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="H8" s="7">
-        <v>535</v>
+        <v>921</v>
       </c>
       <c r="I8" s="7">
-        <v>567344</v>
+        <v>1011197</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="M8" s="7">
-        <v>1073</v>
+        <v>1843</v>
       </c>
       <c r="N8" s="7">
-        <v>1140825</v>
+        <v>2012686</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,153 +2644,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>16457</v>
+        <v>8045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>20987</v>
+        <v>11532</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>37445</v>
+        <v>19577</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>922</v>
+        <v>682</v>
       </c>
       <c r="D11" s="7">
-        <v>1001490</v>
+        <v>749578</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
-        <v>921</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>1011197</v>
+        <v>765642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
-        <v>1843</v>
+        <v>1377</v>
       </c>
       <c r="N11" s="7">
-        <v>2012686</v>
+        <v>1515220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,153 +2799,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>8045</v>
+        <v>15408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>11532</v>
+        <v>27577</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>19577</v>
+        <v>42985</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>682</v>
+        <v>896</v>
       </c>
       <c r="D14" s="7">
-        <v>749578</v>
+        <v>932331</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>695</v>
+        <v>977</v>
       </c>
       <c r="I14" s="7">
-        <v>765642</v>
+        <v>1024324</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>1377</v>
+        <v>1873</v>
       </c>
       <c r="N14" s="7">
-        <v>1515220</v>
+        <v>1956655</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,153 +2954,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>15408</v>
+        <v>57692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>27577</v>
+        <v>77898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="N16" s="7">
-        <v>42985</v>
+        <v>135590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>896</v>
+        <v>3157</v>
       </c>
       <c r="D17" s="7">
-        <v>932331</v>
+        <v>3369087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
-        <v>977</v>
+        <v>3227</v>
       </c>
       <c r="I17" s="7">
-        <v>1024324</v>
+        <v>3480411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
-        <v>1873</v>
+        <v>6384</v>
       </c>
       <c r="N17" s="7">
-        <v>1956655</v>
+        <v>6849498</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,217 +3109,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>52</v>
-      </c>
-      <c r="D19" s="7">
-        <v>57692</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H19" s="7">
-        <v>71</v>
-      </c>
-      <c r="I19" s="7">
-        <v>77898</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M19" s="7">
-        <v>123</v>
-      </c>
-      <c r="N19" s="7">
-        <v>135590</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3157</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3369087</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3480411</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6384</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6849498</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3656,8 +3176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DA9C6-E3DF-4105-B583-D8F669C8ACC8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17032EF6-35DA-4196-BB32-373B21B0E0BC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3673,7 +3193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3774,100 +3294,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1100</v>
+        <v>5859</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>2585</v>
+        <v>6850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>3684</v>
+        <v>12709</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="D5" s="7">
-        <v>115446</v>
+        <v>668941</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7">
-        <v>112</v>
+        <v>659</v>
       </c>
       <c r="I5" s="7">
-        <v>110775</v>
+        <v>665989</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
-        <v>224</v>
+        <v>1305</v>
       </c>
       <c r="N5" s="7">
-        <v>226222</v>
+        <v>1334930</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,153 +3396,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>4759</v>
+        <v>9614</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>4265</v>
+        <v>12840</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>9025</v>
+        <v>22454</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>553495</v>
+        <v>1012817</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>547</v>
+        <v>966</v>
       </c>
       <c r="I8" s="7">
-        <v>555214</v>
+        <v>1030073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>1081</v>
+        <v>1909</v>
       </c>
       <c r="N8" s="7">
-        <v>1108708</v>
+        <v>2042890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,153 +3551,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>9614</v>
+        <v>7047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6661</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M10" s="7">
         <v>11</v>
       </c>
-      <c r="I10" s="7">
-        <v>12840</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
       <c r="N10" s="7">
-        <v>22454</v>
+        <v>13708</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>691</v>
       </c>
       <c r="D11" s="7">
-        <v>1012817</v>
+        <v>752505</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>966</v>
+        <v>730</v>
       </c>
       <c r="I11" s="7">
-        <v>1030073</v>
+        <v>778350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>1909</v>
+        <v>1421</v>
       </c>
       <c r="N11" s="7">
-        <v>2042890</v>
+        <v>1530855</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,153 +3706,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>7047</v>
+        <v>11932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>6661</v>
+        <v>11371</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M13" s="7">
+        <v>22</v>
+      </c>
+      <c r="N13" s="7">
+        <v>23303</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="7">
-        <v>11</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13708</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>691</v>
+        <v>921</v>
       </c>
       <c r="D14" s="7">
-        <v>752505</v>
+        <v>925635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="H14" s="7">
-        <v>730</v>
+        <v>948</v>
       </c>
       <c r="I14" s="7">
-        <v>778350</v>
+        <v>1032408</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1869</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1958043</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1421</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1530855</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,153 +3861,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>11932</v>
+        <v>34452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>11371</v>
+        <v>37722</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N16" s="7">
-        <v>23303</v>
+        <v>72174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>921</v>
+        <v>3201</v>
       </c>
       <c r="D17" s="7">
-        <v>925635</v>
+        <v>3359898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
-        <v>948</v>
+        <v>3303</v>
       </c>
       <c r="I17" s="7">
-        <v>1032408</v>
+        <v>3506820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
-        <v>1869</v>
+        <v>6504</v>
       </c>
       <c r="N17" s="7">
-        <v>1958043</v>
+        <v>6866718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,217 +4016,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>30</v>
-      </c>
-      <c r="D19" s="7">
-        <v>34452</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="7">
-        <v>35</v>
-      </c>
-      <c r="I19" s="7">
-        <v>37722</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="M19" s="7">
-        <v>65</v>
-      </c>
-      <c r="N19" s="7">
-        <v>72174</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3359898</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3303</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3506820</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6866718</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4719,8 +4083,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E5CCCA-B41D-41F2-8290-9E359B3C4252}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF935F4E-AEEF-45EA-ACE9-F579AEC3114A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4736,7 +4100,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4837,100 +4201,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>3974</v>
+        <v>14004</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>3261</v>
+        <v>15727</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="N4" s="7">
-        <v>7235</v>
+        <v>29731</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>714</v>
       </c>
       <c r="D5" s="7">
-        <v>98008</v>
+        <v>621437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1210</v>
       </c>
       <c r="I5" s="7">
-        <v>127472</v>
+        <v>709603</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
-        <v>351</v>
+        <v>1924</v>
       </c>
       <c r="N5" s="7">
-        <v>225480</v>
+        <v>1331041</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,153 +4303,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>10542</v>
+        <v>22618</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7">
-        <v>13956</v>
+        <v>29631</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N7" s="7">
-        <v>24498</v>
+        <v>52250</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>600</v>
+        <v>943</v>
       </c>
       <c r="D8" s="7">
-        <v>539281</v>
+        <v>1170246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>973</v>
+        <v>1464</v>
       </c>
       <c r="I8" s="7">
-        <v>606011</v>
+        <v>929020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>1573</v>
+        <v>2407</v>
       </c>
       <c r="N8" s="7">
-        <v>1145292</v>
+        <v>2099266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,153 +4458,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>23878</v>
+        <v>24367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>33524</v>
+        <v>235946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N10" s="7">
-        <v>57402</v>
+        <v>260312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>943</v>
+        <v>646</v>
       </c>
       <c r="D11" s="7">
-        <v>1015370</v>
+        <v>680313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="H11" s="7">
-        <v>1462</v>
+        <v>995</v>
       </c>
       <c r="I11" s="7">
-        <v>1026555</v>
+        <v>697420</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
-        <v>2405</v>
+        <v>1641</v>
       </c>
       <c r="N11" s="7">
-        <v>2041925</v>
+        <v>1377734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>144</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,153 +4613,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>27257</v>
+        <v>15765</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>146193</v>
+        <v>26150</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="N13" s="7">
-        <v>173450</v>
+        <v>41916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>645</v>
+        <v>987</v>
       </c>
       <c r="D14" s="7">
-        <v>701515</v>
+        <v>911066</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>993</v>
+        <v>1516</v>
       </c>
       <c r="I14" s="7">
-        <v>728178</v>
+        <v>1068782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
-        <v>1638</v>
+        <v>2503</v>
       </c>
       <c r="N14" s="7">
-        <v>1429692</v>
+        <v>1979847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,153 +4768,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>15863</v>
+        <v>76755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>40</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="I16" s="7">
-        <v>29633</v>
+        <v>307454</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="N16" s="7">
-        <v>45496</v>
+        <v>384209</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>987</v>
+        <v>3290</v>
       </c>
       <c r="D17" s="7">
-        <v>949540</v>
+        <v>3383062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
-        <v>1515</v>
+        <v>5185</v>
       </c>
       <c r="I17" s="7">
-        <v>1120799</v>
+        <v>3404826</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
-        <v>2502</v>
+        <v>8475</v>
       </c>
       <c r="N17" s="7">
-        <v>2070339</v>
+        <v>6787888</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>347</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,217 +4923,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>87</v>
-      </c>
-      <c r="D19" s="7">
-        <v>81514</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="H19" s="7">
-        <v>187</v>
-      </c>
-      <c r="I19" s="7">
-        <v>226568</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M19" s="7">
-        <v>274</v>
-      </c>
-      <c r="N19" s="7">
-        <v>308081</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3289</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3303714</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5180</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3609013</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8469</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6912728</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
